--- a/data/trans_orig/IP26C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP26C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{901AF03C-27F7-4B7C-8D0D-65A80AE645FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E14B23-6513-4BAA-9224-D2F7C032D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{02C2EC34-052A-41CE-91BE-B5B248B85285}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{631EFD42-B3F2-4970-85B8-D6D13CB868CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,10 +68,214 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Sí con ampollas</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Si sin ampollas</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>89,82%</t>
@@ -101,147 +305,138 @@
     <t>90,25%</t>
   </si>
   <si>
-    <t>Si sin ampollas</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>Sí con ampollas</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
     <t>92,23%</t>
   </si>
   <si>
@@ -263,199 +458,52 @@
     <t>87,96%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>90,57%</t>
@@ -485,57 +533,183 @@
     <t>90,69%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
     <t>88,08%</t>
   </si>
   <si>
@@ -563,118 +737,118 @@
     <t>91,93%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>89,23%</t>
@@ -704,178 +878,49 @@
     <t>90,22%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>89,09%</t>
@@ -905,54 +950,141 @@
     <t>90,59%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,01%)</t>
   </si>
   <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
     <t>91,43%</t>
   </si>
   <si>
@@ -977,103 +1109,109 @@
     <t>93,41%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>86,41%</t>
@@ -1100,142 +1238,52 @@
     <t>92,07%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>90,7%</t>
@@ -1262,57 +1310,180 @@
     <t>91,84%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
     <t>86,89%</t>
   </si>
   <si>
@@ -1337,118 +1508,94 @@
     <t>89,84%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>88,57%</t>
@@ -1478,151 +1625,37 @@
     <t>93,18%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>86,47%</t>
@@ -1647,39 +1680,6 @@
   </si>
   <si>
     <t>90,89%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2D7457-42FE-401C-B262-2DC6F41537EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E191BFD2-124D-4EAE-BE12-286F605AE9FE}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2189,10 +2189,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>188753</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2204,136 +2204,136 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>166993</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>553</v>
-      </c>
-      <c r="N4" s="7">
-        <v>355746</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2223</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4564</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7">
-        <v>18175</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6787</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>43</v>
-      </c>
-      <c r="I5" s="7">
-        <v>26887</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>71</v>
-      </c>
-      <c r="N5" s="7">
-        <v>45062</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
       <c r="D6" s="7">
-        <v>3225</v>
+        <v>23221</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18160</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>53</v>
+      </c>
+      <c r="N6" s="7">
+        <v>41381</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>661</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>6</v>
-      </c>
-      <c r="N6" s="7">
-        <v>3886</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,108 +2342,108 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>210154</v>
+        <v>25444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>194541</v>
+        <v>22724</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>630</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>404695</v>
+        <v>48168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>112812</v>
+        <v>602</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>602</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="7">
-        <v>155</v>
-      </c>
-      <c r="I8" s="7">
-        <v>103498</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="7">
-        <v>326</v>
-      </c>
-      <c r="N8" s="7">
-        <v>216309</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>17</v>
@@ -2452,13 +2452,13 @@
         <v>11395</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -2467,13 +2467,13 @@
         <v>11797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -2482,64 +2482,64 @@
         <v>23192</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="D10" s="7">
-        <v>602</v>
+        <v>112812</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="7">
+        <v>155</v>
+      </c>
+      <c r="I10" s="7">
+        <v>103498</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="7">
+        <v>326</v>
+      </c>
+      <c r="N10" s="7">
+        <v>216309</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>602</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2554,13 @@
         <v>124809</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>173</v>
@@ -2569,13 +2569,13 @@
         <v>115295</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>362</v>
@@ -2584,168 +2584,168 @@
         <v>240103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>191036</v>
+        <v>3225</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>661</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="7">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3886</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="H12" s="7">
-        <v>243</v>
-      </c>
-      <c r="I12" s="7">
-        <v>185348</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="7">
-        <v>524</v>
-      </c>
-      <c r="N12" s="7">
-        <v>376384</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>16093</v>
+        <v>18175</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
+        <v>43</v>
+      </c>
+      <c r="I13" s="7">
+        <v>26887</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>71</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45062</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20871</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="7">
-        <v>51</v>
-      </c>
-      <c r="N13" s="7">
-        <v>36964</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>188753</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
+        <v>267</v>
+      </c>
+      <c r="I14" s="7">
+        <v>166993</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2434</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>553</v>
+      </c>
+      <c r="N14" s="7">
+        <v>355746</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2434</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,204 +2754,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D15" s="7">
-        <v>207129</v>
+        <v>210154</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="I15" s="7">
-        <v>208653</v>
+        <v>194541</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>578</v>
+        <v>630</v>
       </c>
       <c r="N15" s="7">
-        <v>415782</v>
+        <v>404695</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>23221</v>
+        <v>2420</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>910</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="7">
-        <v>23</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18160</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3330</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="M16" s="7">
-        <v>53</v>
-      </c>
-      <c r="N16" s="7">
-        <v>41381</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
-        <v>3</v>
-      </c>
       <c r="D17" s="7">
-        <v>2223</v>
+        <v>13467</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10784</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>4564</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>37</v>
+      </c>
+      <c r="N17" s="7">
+        <v>24250</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
-      <c r="N17" s="7">
-        <v>6787</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>133132</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="7">
+        <v>210</v>
+      </c>
+      <c r="I18" s="7">
+        <v>126124</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>259255</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,204 +2960,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D19" s="7">
-        <v>25444</v>
+        <v>149018</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I19" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>62</v>
+        <v>460</v>
       </c>
       <c r="N19" s="7">
-        <v>48168</v>
+        <v>286835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>133132</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>126124</v>
+        <v>2434</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>417</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>259255</v>
+        <v>2434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7">
-        <v>13467</v>
+        <v>16093</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H21" s="7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I21" s="7">
-        <v>10784</v>
+        <v>20871</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M21" s="7">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N21" s="7">
-        <v>24250</v>
+        <v>36964</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>281</v>
       </c>
       <c r="D22" s="7">
-        <v>2420</v>
+        <v>191036</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="7">
+        <v>243</v>
+      </c>
+      <c r="I22" s="7">
+        <v>185348</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>910</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>524</v>
       </c>
       <c r="N22" s="7">
-        <v>3330</v>
+        <v>376384</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,49 +3166,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="D23" s="7">
-        <v>149018</v>
+        <v>207129</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="I23" s="7">
-        <v>137817</v>
+        <v>208653</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>460</v>
+        <v>578</v>
       </c>
       <c r="N23" s="7">
-        <v>286835</v>
+        <v>415782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,10 +3219,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>648955</v>
+        <v>6248</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>139</v>
@@ -3234,40 +3234,40 @@
         <v>141</v>
       </c>
       <c r="H24" s="7">
-        <v>898</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>600121</v>
+        <v>4005</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>16</v>
+      </c>
+      <c r="N24" s="7">
+        <v>10253</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M24" s="7">
-        <v>1873</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1249077</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>92</v>
@@ -3276,13 +3276,13 @@
         <v>61352</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
@@ -3291,13 +3291,13 @@
         <v>74903</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M25" s="7">
         <v>203</v>
@@ -3306,43 +3306,43 @@
         <v>136255</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="D26" s="7">
-        <v>6248</v>
+        <v>648955</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>898</v>
+      </c>
+      <c r="I26" s="7">
+        <v>600121</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4005</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>159</v>
@@ -3351,10 +3351,10 @@
         <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>16</v>
+        <v>1873</v>
       </c>
       <c r="N26" s="7">
-        <v>10253</v>
+        <v>1249077</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -3378,13 +3378,13 @@
         <v>716555</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1015</v>
@@ -3393,13 +3393,13 @@
         <v>679029</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2092</v>
@@ -3408,13 +3408,13 @@
         <v>1395584</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3435,7 +3435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03440509-F1F1-4D34-AFA9-F51BE3AA0E21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30851141-E258-47CE-9AA8-213A3167689D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3553,151 +3553,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>194787</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H4" s="7">
-        <v>291</v>
-      </c>
-      <c r="I4" s="7">
-        <v>187725</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" s="7">
-        <v>572</v>
-      </c>
-      <c r="N4" s="7">
-        <v>382512</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>25745</v>
+        <v>1868</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2484</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="7">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4351</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16050</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M5" s="7">
-        <v>62</v>
-      </c>
-      <c r="N5" s="7">
-        <v>41795</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>616</v>
+        <v>23587</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="7">
+        <v>23</v>
+      </c>
+      <c r="I6" s="7">
+        <v>19889</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="7">
+        <v>49</v>
+      </c>
+      <c r="N6" s="7">
+        <v>43477</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>747</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1363</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,108 +3706,108 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>221148</v>
+        <v>25455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>204522</v>
+        <v>22373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>636</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>425670</v>
+        <v>47828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>112864</v>
+        <v>2625</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>916</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H8" s="7">
-        <v>144</v>
-      </c>
-      <c r="I8" s="7">
-        <v>102969</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3541</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="M8" s="7">
-        <v>303</v>
-      </c>
-      <c r="N8" s="7">
-        <v>215832</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>19</v>
@@ -3816,13 +3816,13 @@
         <v>13109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -3831,13 +3831,13 @@
         <v>11771</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -3846,64 +3846,64 @@
         <v>24880</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D10" s="7">
-        <v>2625</v>
+        <v>112864</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="7">
+        <v>144</v>
+      </c>
+      <c r="I10" s="7">
+        <v>102969</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>916</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>303</v>
+      </c>
+      <c r="N10" s="7">
+        <v>215832</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3541</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3918,13 @@
         <v>128599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>161</v>
@@ -3933,13 +3933,13 @@
         <v>115656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>343</v>
@@ -3948,168 +3948,168 @@
         <v>244254</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>183844</v>
+        <v>616</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>747</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1363</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
-      <c r="I12" s="7">
-        <v>177915</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M12" s="7">
-        <v>481</v>
-      </c>
-      <c r="N12" s="7">
-        <v>361759</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>18527</v>
+        <v>25745</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="7">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7">
+        <v>16050</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" s="7">
+        <v>62</v>
+      </c>
+      <c r="N13" s="7">
+        <v>41795</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27556</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M13" s="7">
-        <v>63</v>
-      </c>
-      <c r="N13" s="7">
-        <v>46083</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>3659</v>
+        <v>194787</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="7">
+        <v>291</v>
+      </c>
+      <c r="I14" s="7">
+        <v>187725</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M14" s="7">
+        <v>572</v>
+      </c>
+      <c r="N14" s="7">
+        <v>382512</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1700</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5358</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,204 +4118,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="D15" s="7">
-        <v>206029</v>
+        <v>221148</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="I15" s="7">
-        <v>207171</v>
+        <v>204522</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>551</v>
+        <v>636</v>
       </c>
       <c r="N15" s="7">
-        <v>413200</v>
+        <v>425670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>23587</v>
+        <v>1036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>19889</v>
+        <v>627</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>43477</v>
+        <v>1663</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>1868</v>
+        <v>14099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>2484</v>
+        <v>11368</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="N17" s="7">
-        <v>4351</v>
+        <v>25466</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>148608</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>141861</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>62</v>
+        <v>249</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>290470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,195 +4324,195 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="D19" s="7">
-        <v>25455</v>
+        <v>163743</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I19" s="7">
-        <v>22373</v>
+        <v>153856</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>492</v>
       </c>
       <c r="N19" s="7">
-        <v>47828</v>
+        <v>317599</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>228</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>148608</v>
+        <v>3659</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1700</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>7</v>
+      </c>
+      <c r="N20" s="7">
+        <v>5358</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H20" s="7">
-        <v>221</v>
-      </c>
-      <c r="I20" s="7">
-        <v>141861</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M20" s="7">
-        <v>449</v>
-      </c>
-      <c r="N20" s="7">
-        <v>290470</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>14099</v>
+        <v>18527</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H21" s="7">
+        <v>36</v>
+      </c>
+      <c r="I21" s="7">
+        <v>27556</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>63</v>
+      </c>
+      <c r="N21" s="7">
+        <v>46083</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H21" s="7">
-        <v>18</v>
-      </c>
-      <c r="I21" s="7">
-        <v>11368</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="P21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M21" s="7">
-        <v>40</v>
-      </c>
-      <c r="N21" s="7">
-        <v>25466</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="D22" s="7">
-        <v>1036</v>
+        <v>183844</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>35</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="7">
+        <v>233</v>
+      </c>
+      <c r="I22" s="7">
+        <v>177915</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>627</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>481</v>
       </c>
       <c r="N22" s="7">
-        <v>1663</v>
+        <v>361759</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>276</v>
@@ -4530,49 +4530,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="D23" s="7">
-        <v>163743</v>
+        <v>206029</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="I23" s="7">
-        <v>153856</v>
+        <v>207171</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="N23" s="7">
-        <v>317599</v>
+        <v>413200</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,55 +4583,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>942</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>663691</v>
+        <v>7936</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>279</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3990</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H24" s="7">
-        <v>912</v>
-      </c>
-      <c r="I24" s="7">
-        <v>630359</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>17</v>
+      </c>
+      <c r="N24" s="7">
+        <v>11925</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="M24" s="7">
-        <v>1854</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1294050</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>108</v>
@@ -4640,13 +4640,13 @@
         <v>73347</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>97</v>
@@ -4655,13 +4655,13 @@
         <v>69229</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -4670,58 +4670,58 @@
         <v>142576</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>942</v>
       </c>
       <c r="D26" s="7">
-        <v>7936</v>
+        <v>663691</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>912</v>
+      </c>
+      <c r="I26" s="7">
+        <v>630359</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3990</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1854</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1294050</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="M26" s="7">
-        <v>17</v>
-      </c>
-      <c r="N26" s="7">
-        <v>11925</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>301</v>
@@ -4742,13 +4742,13 @@
         <v>744974</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1014</v>
@@ -4757,13 +4757,13 @@
         <v>703577</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2076</v>
@@ -4772,13 +4772,13 @@
         <v>1448551</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4799,7 +4799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD44C65-C67C-480F-BB9F-75C5E2233AB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DCB6E5-F8E7-40F8-9085-66ADD0457DC0}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4917,151 +4917,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>203394</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H4" s="7">
-        <v>303</v>
-      </c>
-      <c r="I4" s="7">
-        <v>187299</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="M4" s="7">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>390694</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>19063</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>15197</v>
+        <v>1036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>34260</v>
+        <v>1036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>1752</v>
+        <v>21491</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="N6" s="7">
-        <v>1752</v>
+        <v>47065</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,108 +5070,108 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>222457</v>
+        <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>329</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>204248</v>
+        <v>22527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>658</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>426706</v>
+        <v>48101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>110311</v>
+        <v>721</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>102923</v>
+        <v>913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
-        <v>299</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>213234</v>
+        <v>1634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>16</v>
@@ -5180,13 +5180,13 @@
         <v>11471</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5195,13 +5195,13 @@
         <v>5975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -5210,64 +5210,64 @@
         <v>17446</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="D10" s="7">
-        <v>721</v>
+        <v>110311</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="I10" s="7">
-        <v>913</v>
+        <v>102923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="N10" s="7">
-        <v>1634</v>
+        <v>213234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>35</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5282,13 @@
         <v>122502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>161</v>
@@ -5297,13 +5297,13 @@
         <v>109812</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>326</v>
@@ -5312,168 +5312,168 @@
         <v>232314</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>181455</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>183633</v>
+        <v>1752</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>365088</v>
+        <v>1752</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>19145</v>
+        <v>19063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>21704</v>
+        <v>15197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>40849</v>
+        <v>34260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="D14" s="7">
-        <v>1426</v>
+        <v>203394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="I14" s="7">
-        <v>687</v>
+        <v>187299</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>604</v>
       </c>
       <c r="N14" s="7">
-        <v>2114</v>
+        <v>390694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,204 +5482,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="D15" s="7">
-        <v>202027</v>
+        <v>222457</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="I15" s="7">
-        <v>206024</v>
+        <v>204248</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>564</v>
+        <v>658</v>
       </c>
       <c r="N15" s="7">
-        <v>408051</v>
+        <v>426706</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>25574</v>
+        <v>1081</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>21491</v>
+        <v>3129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>47065</v>
+        <v>4210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>15745</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>35</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>1036</v>
+        <v>15146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="N17" s="7">
-        <v>1036</v>
+        <v>30890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>35</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>149160</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H18" s="7">
+        <v>226</v>
+      </c>
+      <c r="I18" s="7">
+        <v>136052</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>62</v>
+        <v>373</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>285211</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>375</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>62</v>
+        <v>376</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>256</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,198 +5688,198 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D19" s="7">
-        <v>25574</v>
+        <v>165986</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>22527</v>
+        <v>154326</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>503</v>
       </c>
       <c r="N19" s="7">
-        <v>48101</v>
+        <v>320312</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>223</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>149160</v>
+        <v>1426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>378</v>
       </c>
       <c r="H20" s="7">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>136052</v>
+        <v>687</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2114</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="M20" s="7">
-        <v>449</v>
-      </c>
-      <c r="N20" s="7">
-        <v>285211</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>15745</v>
+        <v>19145</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>29</v>
+      </c>
+      <c r="I21" s="7">
+        <v>21704</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="H21" s="7">
-        <v>25</v>
-      </c>
-      <c r="I21" s="7">
-        <v>15146</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>55</v>
+      </c>
+      <c r="N21" s="7">
+        <v>40849</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="M21" s="7">
-        <v>48</v>
-      </c>
-      <c r="N21" s="7">
-        <v>30890</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="D22" s="7">
-        <v>1081</v>
+        <v>181455</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H22" s="7">
+        <v>249</v>
+      </c>
+      <c r="I22" s="7">
+        <v>183633</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3129</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>506</v>
+      </c>
+      <c r="N22" s="7">
+        <v>365088</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="M22" s="7">
-        <v>6</v>
-      </c>
-      <c r="N22" s="7">
-        <v>4210</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>397</v>
@@ -5894,49 +5894,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="D23" s="7">
-        <v>165986</v>
+        <v>202027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="I23" s="7">
-        <v>154326</v>
+        <v>206024</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="N23" s="7">
-        <v>320312</v>
+        <v>408051</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,10 +5947,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>959</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>669894</v>
+        <v>3228</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>399</v>
@@ -5959,28 +5959,28 @@
         <v>400</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>214</v>
+        <v>401</v>
       </c>
       <c r="H24" s="7">
-        <v>952</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>631399</v>
+        <v>6482</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>402</v>
+        <v>38</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>403</v>
       </c>
       <c r="M24" s="7">
-        <v>1911</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>1301293</v>
+        <v>9710</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>404</v>
@@ -5995,7 +5995,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>93</v>
@@ -6037,7 +6037,7 @@
         <v>413</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>414</v>
@@ -6046,13 +6046,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>959</v>
       </c>
       <c r="D26" s="7">
-        <v>3228</v>
+        <v>669894</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>415</v>
@@ -6061,28 +6061,28 @@
         <v>416</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="7">
+        <v>952</v>
+      </c>
+      <c r="I26" s="7">
+        <v>631399</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H26" s="7">
-        <v>10</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6482</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>419</v>
       </c>
       <c r="M26" s="7">
-        <v>14</v>
+        <v>1911</v>
       </c>
       <c r="N26" s="7">
-        <v>9710</v>
+        <v>1301293</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>420</v>
@@ -6106,13 +6106,13 @@
         <v>738546</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1049</v>
@@ -6121,13 +6121,13 @@
         <v>696938</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2105</v>
@@ -6136,13 +6136,13 @@
         <v>1435484</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -6163,7 +6163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB57DAE8-46D3-45A8-AE2F-E51898921516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54108081-E01D-4C7A-B291-F7290F73514D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6281,151 +6281,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>217385</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H4" s="7">
-        <v>246</v>
-      </c>
-      <c r="I4" s="7">
-        <v>169618</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M4" s="7">
-        <v>542</v>
-      </c>
-      <c r="N4" s="7">
-        <v>387003</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>29410</v>
+        <v>2192</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2338</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4530</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H5" s="7">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7">
-        <v>21625</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="M5" s="7">
-        <v>71</v>
-      </c>
-      <c r="N5" s="7">
-        <v>51035</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>3391</v>
+        <v>10506</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" s="7">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>14449</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M6" s="7">
+        <v>40</v>
+      </c>
+      <c r="N6" s="7">
+        <v>24955</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1109</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="M6" s="7">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7">
-        <v>4499</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,108 +6434,108 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>97839</v>
+        <v>1118</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2552</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M8" s="7">
+        <v>7</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3669</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H8" s="7">
-        <v>147</v>
-      </c>
-      <c r="I8" s="7">
-        <v>91702</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="M8" s="7">
-        <v>277</v>
-      </c>
-      <c r="N8" s="7">
-        <v>189539</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>20</v>
@@ -6544,13 +6544,13 @@
         <v>15640</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -6559,13 +6559,13 @@
         <v>9642</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -6574,64 +6574,64 @@
         <v>25281</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="D10" s="7">
-        <v>1118</v>
+        <v>97839</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H10" s="7">
+        <v>147</v>
+      </c>
+      <c r="I10" s="7">
+        <v>91702</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="M10" s="7">
+        <v>277</v>
+      </c>
+      <c r="N10" s="7">
+        <v>189539</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2552</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="M10" s="7">
-        <v>7</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3669</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6646,13 @@
         <v>114596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -6661,13 +6661,13 @@
         <v>103895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>320</v>
@@ -6676,168 +6676,168 @@
         <v>218490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>155009</v>
+        <v>3391</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1109</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4499</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="H12" s="7">
-        <v>221</v>
-      </c>
-      <c r="I12" s="7">
-        <v>158115</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="M12" s="7">
-        <v>433</v>
-      </c>
-      <c r="N12" s="7">
-        <v>313124</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>20007</v>
+        <v>29410</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H13" s="7">
+        <v>31</v>
+      </c>
+      <c r="I13" s="7">
+        <v>21625</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M13" s="7">
+        <v>71</v>
+      </c>
+      <c r="N13" s="7">
+        <v>51035</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12018</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="M13" s="7">
-        <v>43</v>
-      </c>
-      <c r="N13" s="7">
-        <v>32024</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>217385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>481</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H14" s="7">
+        <v>246</v>
+      </c>
+      <c r="I14" s="7">
+        <v>169618</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="M14" s="7">
+        <v>542</v>
+      </c>
+      <c r="N14" s="7">
+        <v>387003</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>616</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>616</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,204 +6846,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D15" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>170748</v>
+        <v>192352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="N15" s="7">
-        <v>345764</v>
+        <v>442538</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>10506</v>
+        <v>858</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>858</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H16" s="7">
-        <v>24</v>
-      </c>
-      <c r="I16" s="7">
-        <v>14449</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="M16" s="7">
-        <v>40</v>
-      </c>
-      <c r="N16" s="7">
-        <v>24955</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>2192</v>
+        <v>9592</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H17" s="7">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7">
+        <v>11753</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M17" s="7">
+        <v>30</v>
+      </c>
+      <c r="N17" s="7">
+        <v>21345</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2338</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4530</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>162337</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>501</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>502</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>156149</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>503</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>62</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>504</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>318486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>35</v>
+        <v>505</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>62</v>
+        <v>506</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,201 +7052,201 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="D19" s="7">
-        <v>12698</v>
+        <v>172787</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>450</v>
       </c>
       <c r="N19" s="7">
-        <v>29485</v>
+        <v>340689</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>162337</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>616</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>616</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="H20" s="7">
-        <v>208</v>
-      </c>
-      <c r="I20" s="7">
-        <v>156149</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="M20" s="7">
-        <v>419</v>
-      </c>
-      <c r="N20" s="7">
-        <v>318486</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>9592</v>
+        <v>20007</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="7">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7">
+        <v>12018</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M21" s="7">
+        <v>43</v>
+      </c>
+      <c r="N21" s="7">
+        <v>32024</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="H21" s="7">
-        <v>18</v>
-      </c>
-      <c r="I21" s="7">
-        <v>11753</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M21" s="7">
-        <v>30</v>
-      </c>
-      <c r="N21" s="7">
-        <v>21345</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="D22" s="7">
-        <v>858</v>
+        <v>155009</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>35</v>
+        <v>520</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H22" s="7">
+        <v>221</v>
+      </c>
+      <c r="I22" s="7">
+        <v>158115</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="M22" s="7">
+        <v>433</v>
+      </c>
+      <c r="N22" s="7">
+        <v>313124</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>858</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>527</v>
@@ -7258,49 +7258,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D23" s="7">
-        <v>172787</v>
+        <v>175016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="I23" s="7">
-        <v>167902</v>
+        <v>170748</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="N23" s="7">
-        <v>340689</v>
+        <v>345764</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,55 +7311,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>865</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>643076</v>
+        <v>5366</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>264</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>528</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="7">
+        <v>9</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4276</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="H24" s="7">
-        <v>846</v>
-      </c>
-      <c r="I24" s="7">
-        <v>590032</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M24" s="7">
+        <v>19</v>
+      </c>
+      <c r="N24" s="7">
+        <v>9642</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1711</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1233109</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>101</v>
@@ -7368,13 +7368,13 @@
         <v>76840</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -7383,13 +7383,13 @@
         <v>57376</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M25" s="7">
         <v>187</v>
@@ -7398,61 +7398,61 @@
         <v>134216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>865</v>
       </c>
       <c r="D26" s="7">
-        <v>5366</v>
+        <v>643076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>395</v>
+        <v>252</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H26" s="7">
+        <v>846</v>
+      </c>
+      <c r="I26" s="7">
+        <v>590032</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1711</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1233109</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="7">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4276</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M26" s="7">
-        <v>19</v>
-      </c>
-      <c r="N26" s="7">
-        <v>9642</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>546</v>
@@ -7470,13 +7470,13 @@
         <v>725282</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>941</v>
@@ -7485,13 +7485,13 @@
         <v>651684</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>1917</v>
@@ -7500,13 +7500,13 @@
         <v>1376967</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP26C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP26C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E14B23-6513-4BAA-9224-D2F7C032D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD17F05-AFE2-4B57-9E1B-6B3ADC763ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{631EFD42-B3F2-4970-85B8-D6D13CB868CE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF580C78-0383-4A81-896B-5048EDDFF763}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="547">
   <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -71,6 +71,66 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>Si sin ampollas</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
     <t>Sí con ampollas</t>
   </si>
   <si>
@@ -89,1597 +149,1537 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>Si sin ampollas</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>1,09%</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1690,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1786,39 +1786,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1870,7 +1870,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1981,13 +1981,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1996,6 +1989,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2060,19 +2060,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E191BFD2-124D-4EAE-BE12-286F605AE9FE}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8F30F2-F852-463C-B94C-3EA4A4E4CD2D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2189,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>23221</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2204,40 +2224,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>18160</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>41381</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -2246,13 +2266,13 @@
         <v>2223</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -2261,13 +2281,13 @@
         <v>4564</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -2276,61 +2296,61 @@
         <v>6787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>23221</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>18160</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="M6" s="7">
-        <v>53</v>
-      </c>
-      <c r="N6" s="7">
-        <v>41381</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -2395,55 +2415,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>602</v>
+        <v>112812</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>103498</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="N8" s="7">
-        <v>602</v>
+        <v>216309</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>17</v>
@@ -2452,13 +2472,13 @@
         <v>11395</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -2467,13 +2487,13 @@
         <v>11797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -2482,61 +2502,61 @@
         <v>23192</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>112812</v>
+        <v>602</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>103498</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>216309</v>
+        <v>602</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>60</v>
@@ -2601,10 +2621,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>286</v>
       </c>
       <c r="D12" s="7">
-        <v>3225</v>
+        <v>188753</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>62</v>
@@ -2616,40 +2636,40 @@
         <v>64</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="I12" s="7">
-        <v>661</v>
+        <v>166993</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
+        <v>553</v>
       </c>
       <c r="N12" s="7">
-        <v>3886</v>
+        <v>355746</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>28</v>
@@ -2658,10 +2678,10 @@
         <v>18175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>72</v>
@@ -2700,13 +2720,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>286</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>188753</v>
+        <v>3225</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2718,34 +2738,34 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>166993</v>
+        <v>661</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3886</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>553</v>
-      </c>
-      <c r="N14" s="7">
-        <v>355746</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,46 +2821,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="D16" s="7">
-        <v>2420</v>
+        <v>133132</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>210</v>
+      </c>
+      <c r="I16" s="7">
+        <v>126124</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>910</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>417</v>
       </c>
       <c r="N16" s="7">
-        <v>3330</v>
+        <v>259255</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2855,7 +2875,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -2867,10 +2887,10 @@
         <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -2879,13 +2899,13 @@
         <v>10784</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2894,64 +2914,64 @@
         <v>24250</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>133132</v>
+        <v>2420</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>910</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="7">
-        <v>210</v>
-      </c>
-      <c r="I18" s="7">
-        <v>126124</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>6</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3330</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M18" s="7">
-        <v>417</v>
-      </c>
-      <c r="N18" s="7">
-        <v>259255</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,31 +3027,31 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>191036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>243</v>
       </c>
       <c r="I20" s="7">
-        <v>2434</v>
+        <v>185348</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
@@ -3043,10 +3063,10 @@
         <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>524</v>
       </c>
       <c r="N20" s="7">
-        <v>2434</v>
+        <v>376384</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -3061,7 +3081,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>24</v>
@@ -3112,52 +3132,52 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>191036</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="H22" s="7">
-        <v>243</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>185348</v>
+        <v>2434</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2434</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M22" s="7">
-        <v>524</v>
-      </c>
-      <c r="N22" s="7">
-        <v>376384</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,10 +3239,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>975</v>
       </c>
       <c r="D24" s="7">
-        <v>6248</v>
+        <v>648955</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>139</v>
@@ -3234,40 +3254,40 @@
         <v>141</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>898</v>
       </c>
       <c r="I24" s="7">
-        <v>4005</v>
+        <v>600121</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
-        <v>16</v>
+        <v>1873</v>
       </c>
       <c r="N24" s="7">
-        <v>10253</v>
+        <v>1249077</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>92</v>
@@ -3276,13 +3296,13 @@
         <v>61352</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>111</v>
@@ -3291,13 +3311,13 @@
         <v>74903</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>203</v>
@@ -3306,43 +3326,43 @@
         <v>136255</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>975</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>648955</v>
+        <v>6248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="H26" s="7">
-        <v>898</v>
+        <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>600121</v>
+        <v>4005</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>159</v>
@@ -3351,10 +3371,10 @@
         <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>1873</v>
+        <v>16</v>
       </c>
       <c r="N26" s="7">
-        <v>1249077</v>
+        <v>10253</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -3363,7 +3383,7 @@
         <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,6 +3435,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3435,8 +3460,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30851141-E258-47CE-9AA8-213A3167689D}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2DD12-8335-4B7C-8F7A-BBD9D369C401}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3553,55 +3578,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>23587</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>19889</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>43477</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -3610,13 +3635,13 @@
         <v>1868</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3625,13 +3650,13 @@
         <v>2484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3640,61 +3665,61 @@
         <v>4351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>23587</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>19889</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M6" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>43477</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>184</v>
@@ -3759,10 +3784,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7">
-        <v>2625</v>
+        <v>112864</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>185</v>
@@ -3774,25 +3799,25 @@
         <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>916</v>
+        <v>102969</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>303</v>
       </c>
       <c r="N8" s="7">
-        <v>3541</v>
+        <v>215832</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>190</v>
@@ -3807,7 +3832,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>19</v>
@@ -3819,10 +3844,10 @@
         <v>193</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -3831,13 +3856,13 @@
         <v>11771</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -3849,61 +3874,61 @@
         <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>112864</v>
+        <v>2625</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>916</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="7">
-        <v>144</v>
-      </c>
-      <c r="I10" s="7">
-        <v>102969</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3541</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M10" s="7">
-        <v>303</v>
-      </c>
-      <c r="N10" s="7">
-        <v>215832</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,55 +3990,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="D12" s="7">
-        <v>616</v>
+        <v>194787</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="7">
+        <v>291</v>
+      </c>
+      <c r="I12" s="7">
+        <v>187725</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>747</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>212</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>572</v>
       </c>
       <c r="N12" s="7">
-        <v>1363</v>
+        <v>382512</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>38</v>
@@ -4022,13 +4047,13 @@
         <v>25745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4037,13 +4062,13 @@
         <v>16050</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4052,64 +4077,64 @@
         <v>41795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>194787</v>
+        <v>616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>187725</v>
+        <v>747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1363</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="M14" s="7">
-        <v>572</v>
-      </c>
-      <c r="N14" s="7">
-        <v>382512</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,61 +4190,61 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="D16" s="7">
-        <v>1036</v>
+        <v>148608</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="7">
+        <v>221</v>
+      </c>
+      <c r="I16" s="7">
+        <v>141861</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>627</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>449</v>
       </c>
       <c r="N16" s="7">
-        <v>1663</v>
+        <v>290470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>22</v>
@@ -4228,13 +4253,13 @@
         <v>14099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4243,13 +4268,13 @@
         <v>11368</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -4261,61 +4286,61 @@
         <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>148608</v>
+        <v>1036</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>627</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H18" s="7">
-        <v>221</v>
-      </c>
-      <c r="I18" s="7">
-        <v>141861</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1663</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="M18" s="7">
-        <v>449</v>
-      </c>
-      <c r="N18" s="7">
-        <v>290470</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,61 +4396,61 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="D20" s="7">
-        <v>3659</v>
+        <v>183844</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="7">
+        <v>233</v>
+      </c>
+      <c r="I20" s="7">
+        <v>177915</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" s="7">
+        <v>481</v>
+      </c>
+      <c r="N20" s="7">
+        <v>361759</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1700</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5358</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>27</v>
@@ -4434,13 +4459,13 @@
         <v>18527</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -4449,13 +4474,13 @@
         <v>27556</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -4464,64 +4489,64 @@
         <v>46083</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>183844</v>
+        <v>3659</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1700</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5358</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H22" s="7">
-        <v>233</v>
-      </c>
-      <c r="I22" s="7">
-        <v>177915</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M22" s="7">
-        <v>481</v>
-      </c>
-      <c r="N22" s="7">
-        <v>361759</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,55 +4608,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>942</v>
       </c>
       <c r="D24" s="7">
-        <v>7936</v>
+        <v>663691</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" s="7">
+        <v>912</v>
+      </c>
+      <c r="I24" s="7">
+        <v>630359</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>1854</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1294050</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3990</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M24" s="7">
-        <v>17</v>
-      </c>
-      <c r="N24" s="7">
-        <v>11925</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>108</v>
@@ -4640,13 +4665,13 @@
         <v>73347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>97</v>
@@ -4655,13 +4680,13 @@
         <v>69229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -4670,64 +4695,64 @@
         <v>142576</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>942</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7">
-        <v>663691</v>
+        <v>7936</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3990</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>17</v>
+      </c>
+      <c r="N26" s="7">
+        <v>11925</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H26" s="7">
-        <v>912</v>
-      </c>
-      <c r="I26" s="7">
-        <v>630359</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1854</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1294050</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,6 +4804,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4799,8 +4829,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DCB6E5-F8E7-40F8-9085-66ADD0457DC0}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA127ED1-FCDD-4E8D-A266-9868F08446B0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4816,7 +4846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4917,46 +4947,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>21491</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>47065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>167</v>
@@ -4965,7 +4995,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4974,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4989,13 +5019,13 @@
         <v>1036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5004,64 +5034,64 @@
         <v>1036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>21491</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>47065</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>313</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,55 +5153,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7">
-        <v>721</v>
+        <v>110311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="I8" s="7">
-        <v>913</v>
+        <v>102923</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>299</v>
       </c>
       <c r="N8" s="7">
-        <v>1634</v>
+        <v>213234</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>16</v>
@@ -5180,13 +5210,13 @@
         <v>11471</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5195,13 +5225,13 @@
         <v>5975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -5210,64 +5240,64 @@
         <v>17446</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>110311</v>
+        <v>721</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>913</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1634</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H10" s="7">
-        <v>151</v>
-      </c>
-      <c r="I10" s="7">
-        <v>102923</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M10" s="7">
-        <v>299</v>
-      </c>
-      <c r="N10" s="7">
-        <v>213234</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,55 +5359,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>203394</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="7">
+        <v>303</v>
+      </c>
+      <c r="I12" s="7">
+        <v>187299</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M12" s="7">
+        <v>604</v>
+      </c>
+      <c r="N12" s="7">
+        <v>390693</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1752</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1752</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>28</v>
@@ -5386,13 +5416,13 @@
         <v>19063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5401,13 +5431,13 @@
         <v>15197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5416,64 +5446,64 @@
         <v>34260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>203394</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1752</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1752</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H14" s="7">
-        <v>303</v>
-      </c>
-      <c r="I14" s="7">
-        <v>187299</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="M14" s="7">
-        <v>604</v>
-      </c>
-      <c r="N14" s="7">
-        <v>390694</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,7 +5545,7 @@
         <v>658</v>
       </c>
       <c r="N15" s="7">
-        <v>426706</v>
+        <v>426705</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5529,61 +5559,61 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="D16" s="7">
-        <v>1081</v>
+        <v>149160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="7">
+        <v>226</v>
+      </c>
+      <c r="I16" s="7">
+        <v>136052</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M16" s="7">
+        <v>449</v>
+      </c>
+      <c r="N16" s="7">
+        <v>285211</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3129</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4210</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>23</v>
@@ -5592,13 +5622,13 @@
         <v>15745</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5607,13 +5637,13 @@
         <v>15146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -5622,64 +5652,64 @@
         <v>30890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>149160</v>
+        <v>1081</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>229</v>
+        <v>367</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3129</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
-      <c r="I18" s="7">
-        <v>136052</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>6</v>
+      </c>
+      <c r="N18" s="7">
+        <v>4210</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="M18" s="7">
-        <v>449</v>
-      </c>
-      <c r="N18" s="7">
-        <v>285211</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,61 +5765,61 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="D20" s="7">
-        <v>1426</v>
+        <v>181455</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" s="7">
+        <v>249</v>
+      </c>
+      <c r="I20" s="7">
+        <v>183633</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>687</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>379</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>506</v>
       </c>
       <c r="N20" s="7">
-        <v>2114</v>
+        <v>365088</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>26</v>
@@ -5798,13 +5828,13 @@
         <v>19145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -5840,52 +5870,52 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>257</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>181455</v>
+        <v>1426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>392</v>
       </c>
       <c r="H22" s="7">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>183633</v>
+        <v>687</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2114</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="M22" s="7">
-        <v>506</v>
-      </c>
-      <c r="N22" s="7">
-        <v>365088</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,55 +5977,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>959</v>
       </c>
       <c r="D24" s="7">
-        <v>3228</v>
+        <v>669894</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>952</v>
+      </c>
+      <c r="I24" s="7">
+        <v>631399</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6482</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>1911</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1301293</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M24" s="7">
-        <v>14</v>
-      </c>
-      <c r="N24" s="7">
-        <v>9710</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>93</v>
@@ -6004,13 +6034,13 @@
         <v>65424</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>87</v>
@@ -6019,13 +6049,13 @@
         <v>59057</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -6034,64 +6064,64 @@
         <v>124482</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>959</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>669894</v>
+        <v>3228</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="7">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6482</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H26" s="7">
-        <v>952</v>
-      </c>
-      <c r="I26" s="7">
-        <v>631399</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>14</v>
+      </c>
+      <c r="N26" s="7">
+        <v>9710</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="M26" s="7">
-        <v>1911</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1301293</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>422</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,6 +6173,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6163,8 +6198,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54108081-E01D-4C7A-B291-F7290F73514D}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15966CB-BD6E-4BC7-89B7-5BC35D704743}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6180,7 +6215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6281,55 +6316,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>14449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>425</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>24955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -6338,13 +6373,13 @@
         <v>2192</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6353,13 +6388,13 @@
         <v>2338</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -6368,64 +6403,64 @@
         <v>4530</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>10506</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>434</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>436</v>
+        <v>358</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>14449</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>437</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="M6" s="7">
-        <v>40</v>
-      </c>
-      <c r="N6" s="7">
-        <v>24955</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,55 +6522,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7">
-        <v>1118</v>
+        <v>97839</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H8" s="7">
+        <v>147</v>
+      </c>
+      <c r="I8" s="7">
+        <v>91702</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2552</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>277</v>
+      </c>
+      <c r="N8" s="7">
+        <v>189539</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3669</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>20</v>
@@ -6544,13 +6579,13 @@
         <v>15640</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -6559,13 +6594,13 @@
         <v>9642</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -6574,64 +6609,64 @@
         <v>25281</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>97839</v>
+        <v>1118</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2552</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>7</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3669</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="H10" s="7">
-        <v>147</v>
-      </c>
-      <c r="I10" s="7">
-        <v>91702</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="M10" s="7">
-        <v>277</v>
-      </c>
-      <c r="N10" s="7">
-        <v>189539</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,43 +6728,43 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="D12" s="7">
-        <v>3391</v>
+        <v>217385</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H12" s="7">
+        <v>246</v>
+      </c>
+      <c r="I12" s="7">
+        <v>169618</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1109</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>542</v>
+      </c>
+      <c r="N12" s="7">
+        <v>387003</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4499</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>470</v>
@@ -6741,7 +6776,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>40</v>
@@ -6756,7 +6791,7 @@
         <v>473</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -6765,13 +6800,13 @@
         <v>21625</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -6780,64 +6815,64 @@
         <v>51035</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>296</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>217385</v>
+        <v>3391</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1109</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>169618</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4499</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="M14" s="7">
-        <v>542</v>
-      </c>
-      <c r="N14" s="7">
-        <v>387003</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>488</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,61 +6928,61 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="D16" s="7">
-        <v>858</v>
+        <v>162337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>485</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>486</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H16" s="7">
+        <v>208</v>
+      </c>
+      <c r="I16" s="7">
+        <v>156149</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>490</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="N16" s="7">
-        <v>858</v>
+        <v>318486</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>491</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>492</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>12</v>
@@ -6956,13 +6991,13 @@
         <v>9592</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -6971,13 +7006,13 @@
         <v>11753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>499</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -6986,64 +7021,64 @@
         <v>21345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>162337</v>
+        <v>858</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>501</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H18" s="7">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>156149</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>503</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M18" s="7">
-        <v>419</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>318486</v>
+        <v>858</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>505</v>
+        <v>59</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,61 +7134,61 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>155009</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>508</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="I20" s="7">
-        <v>616</v>
+        <v>158115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>512</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="N20" s="7">
-        <v>616</v>
+        <v>313124</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>465</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
         <v>26</v>
@@ -7162,13 +7197,13 @@
         <v>20007</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>198</v>
+        <v>517</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -7177,13 +7212,13 @@
         <v>12018</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -7192,64 +7227,64 @@
         <v>32024</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>155009</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>519</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>520</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>158115</v>
+        <v>616</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>523</v>
+        <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
-        <v>433</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>313124</v>
+        <v>616</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>525</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,55 +7346,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>865</v>
       </c>
       <c r="D24" s="7">
-        <v>5366</v>
+        <v>643076</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>527</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>528</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>190</v>
+        <v>529</v>
       </c>
       <c r="H24" s="7">
-        <v>9</v>
+        <v>846</v>
       </c>
       <c r="I24" s="7">
-        <v>4276</v>
+        <v>590032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>92</v>
+        <v>530</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="M24" s="7">
-        <v>19</v>
+        <v>1711</v>
       </c>
       <c r="N24" s="7">
-        <v>9642</v>
+        <v>1233109</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>532</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>95</v>
+        <v>533</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
         <v>101</v>
@@ -7368,13 +7403,13 @@
         <v>76840</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>237</v>
+        <v>536</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -7383,13 +7418,13 @@
         <v>57376</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="M25" s="7">
         <v>187</v>
@@ -7398,58 +7433,58 @@
         <v>134216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>536</v>
+        <v>320</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>865</v>
+        <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>643076</v>
+        <v>5366</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>540</v>
+        <v>60</v>
       </c>
       <c r="H26" s="7">
-        <v>846</v>
+        <v>9</v>
       </c>
       <c r="I26" s="7">
-        <v>590032</v>
+        <v>4276</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>541</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>543</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
-        <v>1711</v>
+        <v>19</v>
       </c>
       <c r="N26" s="7">
-        <v>1233109</v>
+        <v>9642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>544</v>
+        <v>327</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>545</v>
@@ -7507,6 +7542,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP26C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP26C-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD17F05-AFE2-4B57-9E1B-6B3ADC763ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C863761-A12C-47AC-85D1-529A4F499C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF580C78-0383-4A81-896B-5048EDDFF763}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E77D03E3-E8E4-4058-8593-FE452B619272}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="535">
   <si>
     <t>Menores según si han sufrido alguna quemadura solar en el último año en 2007 (Tasa respuesta: 99,43%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -77,28 +77,28 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>Si sin ampollas</t>
@@ -107,28 +107,28 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>Sí con ampollas</t>
@@ -152,1534 +152,1498 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>90,39%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>89,77%</t>
   </si>
   <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>90,09%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2016 (Tasa respuesta: 99,01%)</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2012 (Tasa respuesta: 98,9%)</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2015 (Tasa respuesta: 99,01%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido alguna quemadura solar en el último año en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>0,3%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8F30F2-F852-463C-B94C-3EA4A4E4CD2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F2C86-9B0A-494C-8EA7-D37BA6DAA79E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2681,10 +2645,10 @@
         <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -2693,13 +2657,13 @@
         <v>26887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -2708,13 +2672,13 @@
         <v>45062</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2693,13 @@
         <v>3225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2744,13 +2708,13 @@
         <v>661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2759,13 +2723,13 @@
         <v>3886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,7 +2785,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2833,13 +2797,13 @@
         <v>133132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>210</v>
@@ -2848,13 +2812,13 @@
         <v>126124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>417</v>
@@ -2863,13 +2827,13 @@
         <v>259255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2848,13 @@
         <v>13467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -2899,13 +2863,13 @@
         <v>10784</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -2914,13 +2878,13 @@
         <v>24250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2899,13 @@
         <v>2420</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2950,13 +2914,13 @@
         <v>910</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -2965,10 +2929,10 @@
         <v>3330</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>112</v>
@@ -3353,7 +3317,7 @@
         <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3365,10 +3329,10 @@
         <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -3377,13 +3341,13 @@
         <v>10253</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,7 +3403,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3460,7 +3424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F2DD12-8335-4B7C-8F7A-BBD9D369C401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBCE7D2-D552-44C0-A69C-E5E94D8E36A2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3477,7 +3441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3584,13 +3548,13 @@
         <v>23587</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -3599,13 +3563,13 @@
         <v>19889</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3614,13 +3578,13 @@
         <v>43477</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3599,13 @@
         <v>1868</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3650,13 +3614,13 @@
         <v>2484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3665,13 +3629,13 @@
         <v>4351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,7 +3656,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3707,7 +3671,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3722,7 +3686,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3754,13 @@
         <v>112864</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -3805,13 +3769,13 @@
         <v>102969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>303</v>
@@ -3820,13 +3784,13 @@
         <v>215832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3805,13 @@
         <v>13109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -3856,13 +3820,13 @@
         <v>11771</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -3871,13 +3835,13 @@
         <v>24880</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3856,13 @@
         <v>2625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3907,13 +3871,13 @@
         <v>916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3922,13 +3886,13 @@
         <v>3541</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3960,13 @@
         <v>194787</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H12" s="7">
         <v>291</v>
@@ -4011,13 +3975,13 @@
         <v>187725</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
         <v>572</v>
@@ -4026,13 +3990,13 @@
         <v>382512</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4011,13 @@
         <v>25745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4062,13 +4026,13 @@
         <v>16050</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -4077,13 +4041,13 @@
         <v>41795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4062,13 @@
         <v>616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4119,7 +4083,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4128,13 +4092,13 @@
         <v>1363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4154,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4202,13 +4166,13 @@
         <v>148608</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>221</v>
@@ -4217,13 +4181,13 @@
         <v>141861</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>449</v>
@@ -4232,13 +4196,13 @@
         <v>290470</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4217,13 @@
         <v>14099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4268,13 +4232,13 @@
         <v>11368</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -4283,13 +4247,13 @@
         <v>25466</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4274,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -4319,13 +4283,13 @@
         <v>627</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -4334,13 +4298,13 @@
         <v>1663</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4372,13 @@
         <v>183844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -4423,13 +4387,13 @@
         <v>177915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
@@ -4438,13 +4402,13 @@
         <v>361759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4423,13 @@
         <v>18527</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -4474,13 +4438,13 @@
         <v>27556</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M21" s="7">
         <v>63</v>
@@ -4489,13 +4453,13 @@
         <v>46083</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4474,13 @@
         <v>3659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -4525,13 +4489,13 @@
         <v>1700</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -4540,13 +4504,13 @@
         <v>5358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4578,13 @@
         <v>663691</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H24" s="7">
         <v>912</v>
@@ -4629,13 +4593,13 @@
         <v>630359</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M24" s="7">
         <v>1854</v>
@@ -4644,13 +4608,13 @@
         <v>1294050</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4629,13 @@
         <v>73347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>97</v>
@@ -4680,13 +4644,13 @@
         <v>69229</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -4695,13 +4659,13 @@
         <v>142576</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4680,13 @@
         <v>7936</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -4731,13 +4695,13 @@
         <v>3990</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -4746,13 +4710,13 @@
         <v>11925</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,7 +4772,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4829,7 +4793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA127ED1-FCDD-4E8D-A266-9868F08446B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3645217B-78ED-4E1C-9B34-7C78F645DC38}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4846,7 +4810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4953,10 +4917,10 @@
         <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4968,13 +4932,13 @@
         <v>21491</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -4983,13 +4947,13 @@
         <v>47065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,7 +4974,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5019,13 +4983,13 @@
         <v>1036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5034,13 +4998,13 @@
         <v>1036</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,7 +5025,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5076,7 +5040,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5091,7 +5055,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5123,13 @@
         <v>110311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>151</v>
@@ -5174,13 +5138,13 @@
         <v>102923</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>299</v>
@@ -5189,13 +5153,13 @@
         <v>213234</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>313</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5174,13 @@
         <v>11471</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5225,13 +5189,13 @@
         <v>5975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -5240,13 +5204,13 @@
         <v>17446</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5231,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5276,13 +5240,13 @@
         <v>913</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5291,13 +5255,13 @@
         <v>1634</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5329,13 @@
         <v>203394</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H12" s="7">
         <v>303</v>
@@ -5380,13 +5344,13 @@
         <v>187299</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M12" s="7">
         <v>604</v>
@@ -5395,13 +5359,13 @@
         <v>390693</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5380,13 @@
         <v>19063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -5431,13 +5395,13 @@
         <v>15197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5446,13 +5410,13 @@
         <v>34260</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,7 +5437,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5482,13 +5446,13 @@
         <v>1752</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5497,13 +5461,13 @@
         <v>1752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,7 +5523,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5571,13 +5535,13 @@
         <v>149160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -5586,13 +5550,13 @@
         <v>136052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>449</v>
@@ -5601,13 +5565,13 @@
         <v>285211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5586,13 @@
         <v>15745</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5637,13 +5601,13 @@
         <v>15146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -5652,13 +5616,13 @@
         <v>30890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5637,13 @@
         <v>1081</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>367</v>
+        <v>270</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -5688,10 +5652,10 @@
         <v>3129</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>370</v>
+        <v>162</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>371</v>
@@ -5834,7 +5798,7 @@
         <v>384</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="H21" s="7">
         <v>29</v>
@@ -5843,13 +5807,13 @@
         <v>21704</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -5858,13 +5822,13 @@
         <v>40849</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5843,13 @@
         <v>1426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5894,7 +5858,7 @@
         <v>687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
@@ -5909,7 +5873,7 @@
         <v>2114</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>395</v>
@@ -5986,10 +5950,10 @@
         <v>397</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>399</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>952</v>
@@ -5998,13 +5962,13 @@
         <v>631399</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M24" s="7">
         <v>1911</v>
@@ -6013,13 +5977,13 @@
         <v>1301293</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +5998,13 @@
         <v>65424</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H25" s="7">
         <v>87</v>
@@ -6049,13 +6013,13 @@
         <v>59057</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -6064,13 +6028,13 @@
         <v>124482</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,13 +6049,13 @@
         <v>3228</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>413</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6100,13 +6064,13 @@
         <v>6482</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -6115,13 +6079,13 @@
         <v>9710</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,7 +6141,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6198,7 +6162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15966CB-BD6E-4BC7-89B7-5BC35D704743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7DDE9-C244-4318-A9F8-B81A1BF8F6E8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6215,7 +6179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6322,13 +6286,13 @@
         <v>10506</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -6337,7 +6301,7 @@
         <v>14449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>424</v>
@@ -6406,10 +6370,10 @@
         <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,7 +6394,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6445,7 +6409,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6460,7 +6424,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6492,13 @@
         <v>97839</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -6543,13 +6507,13 @@
         <v>91702</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>444</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>277</v>
@@ -6558,13 +6522,13 @@
         <v>189539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>443</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6543,13 @@
         <v>15640</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -6594,13 +6558,13 @@
         <v>9642</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -6609,13 +6573,13 @@
         <v>25281</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6594,13 @@
         <v>1118</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -6645,10 +6609,10 @@
         <v>2552</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>459</v>
@@ -6749,13 +6713,13 @@
         <v>169618</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M12" s="7">
         <v>542</v>
@@ -6764,13 +6728,13 @@
         <v>387003</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6749,13 @@
         <v>29410</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -6803,10 +6767,10 @@
         <v>474</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>475</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -6815,10 +6779,10 @@
         <v>51035</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>477</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>478</v>
@@ -6851,13 +6815,13 @@
         <v>1109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>482</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -6866,13 +6830,13 @@
         <v>4499</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,7 +6892,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6940,13 +6904,13 @@
         <v>162337</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H16" s="7">
         <v>208</v>
@@ -6955,13 +6919,13 @@
         <v>156149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M16" s="7">
         <v>419</v>
@@ -6970,13 +6934,13 @@
         <v>318486</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>493</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,7 +7012,7 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7063,7 +7027,7 @@
         <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -7078,7 +7042,7 @@
         <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7110,13 @@
         <v>155009</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>507</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -7161,13 +7125,13 @@
         <v>158115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M20" s="7">
         <v>433</v>
@@ -7176,13 +7140,13 @@
         <v>313124</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>513</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7161,13 @@
         <v>20007</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -7212,13 +7176,13 @@
         <v>12018</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>518</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>519</v>
+        <v>208</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>499</v>
+        <v>248</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -7227,13 +7191,13 @@
         <v>32024</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,7 +7218,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -7263,13 +7227,13 @@
         <v>616</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -7284,7 +7248,7 @@
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7316,13 @@
         <v>643076</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>529</v>
+        <v>440</v>
       </c>
       <c r="H24" s="7">
         <v>846</v>
@@ -7367,13 +7331,13 @@
         <v>590032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>530</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>232</v>
+        <v>400</v>
       </c>
       <c r="M24" s="7">
         <v>1711</v>
@@ -7382,13 +7346,13 @@
         <v>1233109</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>533</v>
+        <v>68</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7367,13 @@
         <v>76840</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>535</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -7418,13 +7382,13 @@
         <v>57376</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>187</v>
@@ -7433,13 +7397,13 @@
         <v>134216</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>541</v>
+        <v>104</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,13 +7418,13 @@
         <v>5366</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>530</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>60</v>
+        <v>532</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -7469,13 +7433,13 @@
         <v>4276</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>544</v>
+        <v>230</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -7484,13 +7448,13 @@
         <v>9642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>546</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,7 +7510,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
